--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail13 Features.xlsx
@@ -4540,7 +4540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4551,29 +4551,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4594,115 +4592,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4719,72 +4707,66 @@
         <v>4.493980587207734e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.3175725077826834</v>
+        <v>1.85482412806409e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9423208777786094</v>
+        <v>2.290156096029814e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.85482412806409e-06</v>
+        <v>-0.06882394835610127</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.290156096029814e-06</v>
+        <v>0.07951628335689714</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.06882394835610127</v>
+        <v>0.01103297601561499</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.07951628335689714</v>
+        <v>1.919088928038849</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01103297601561499</v>
+        <v>2.917768887205179</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.945233222562064</v>
+        <v>5.333581935052927</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.917768887205179</v>
+        <v>1.28661876103273e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.333581935052927</v>
+        <v>10538221503.84419</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.28661876103273e-17</v>
+        <v>1.141244526671626e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>10538221503.84419</v>
+        <v>1428.843045861294</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.141244526671626e-08</v>
+        <v>4.403803639635368e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1428.843045861294</v>
+        <v>13.35861098958232</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>4.403803639635368e-05</v>
+        <v>1.081946639471251</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.35861098958232</v>
+        <v>0.007858697142671093</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.081946639471251</v>
+        <v>7.088457157670579</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007858697142671093</v>
+        <v>0.9609117533907364</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.088457157670579</v>
+        <v>0.843603526983796</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9609117533907364</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.843603526983796</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>11.597272309085</v>
       </c>
     </row>
@@ -4799,72 +4781,66 @@
         <v>4.352343523245461e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2406809288091019</v>
+        <v>1.62165453673931e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.15111730639009</v>
+        <v>2.261315854228006e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.62165453673931e-06</v>
+        <v>-0.06212179517763104</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.261315854228006e-06</v>
+        <v>0.05135460581762941</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.06212179517763104</v>
+        <v>0.006483459918483366</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.05135460581762941</v>
+        <v>1.919345474922917</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.006483459918483366</v>
+        <v>2.58056510035181</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.946635435727058</v>
+        <v>5.220262167275802</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.58056510035181</v>
+        <v>2.209511678295206e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.220262167275802</v>
+        <v>6116089814.503649</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.209511678295206e-17</v>
+        <v>1.965132903663321e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>6116089814.503649</v>
+        <v>826.5021927563428</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.965132903663321e-08</v>
+        <v>7.639396387471871e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>826.5021927563428</v>
+        <v>13.71137860151124</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>7.639396387471871e-05</v>
+        <v>1.085890710808678</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.71137860151124</v>
+        <v>0.01436221059792355</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.085890710808678</v>
+        <v>6.322263843455186</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01436221059792355</v>
+        <v>0.9613540264354974</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.322263843455186</v>
+        <v>0.8908813592779402</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9613540264354974</v>
+        <v>12</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8908813592779402</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>9.700078309667306</v>
       </c>
     </row>
@@ -4879,72 +4855,66 @@
         <v>4.269676925104307e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2230326759500115</v>
+        <v>1.469976437160875e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.21282853402824</v>
+        <v>2.235650524408738e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.469976437160875e-06</v>
+        <v>-0.05739303238947989</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.235650524408738e-06</v>
+        <v>0.03276155337293218</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.05739303238947989</v>
+        <v>0.004362172602530114</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.03276155337293218</v>
+        <v>1.916096398337507</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.004362172602530114</v>
+        <v>2.462447239441834</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.946040128005861</v>
+        <v>4.867252786074024</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.462447239441834</v>
+        <v>3.850219071670868e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.867252786074024</v>
+        <v>3424433597.982724</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.850219071670868e-17</v>
+        <v>3.499986899948217e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3424433597.982724</v>
+        <v>451.5053904564598</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.499986899948217e-08</v>
+        <v>0.0001334834283317346</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>451.5053904564598</v>
+        <v>13.53503766675509</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001334834283317346</v>
+        <v>1.101724243276169</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.53503766675509</v>
+        <v>0.02445379627553863</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.101724243276169</v>
+        <v>5.047495281832449</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02445379627553863</v>
+        <v>0.9615180810179411</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.047495281832449</v>
+        <v>0.9191859449208798</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9615180810179411</v>
+        <v>4</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9191859449208798</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>6.384993863442851</v>
       </c>
     </row>
@@ -4959,72 +4929,66 @@
         <v>4.215636908475027e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2334402221294377</v>
+        <v>1.383296411540401e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.217611578516503</v>
+        <v>2.211957367156948e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.383296411540401e-06</v>
+        <v>-0.05469193891558879</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.211957367156948e-06</v>
+        <v>0.02564796984659715</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05469193891558879</v>
+        <v>0.003648066438211141</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.02564796984659715</v>
+        <v>1.910791161137212</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.003648066438211141</v>
+        <v>2.204124873370719</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.940133739091873</v>
+        <v>4.624723560590751</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.204124873370719</v>
+        <v>7.167124649367085e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.624723560590751</v>
+        <v>1802769377.896206</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.167124649367085e-17</v>
+        <v>6.658080801694397e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1802769377.896206</v>
+        <v>232.9299334758159</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.658080801694397e-08</v>
+        <v>0.0001872257815649219</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>232.9299334758159</v>
+        <v>13.32072787646814</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001872257815649219</v>
+        <v>1.092120872855581</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.32072787646814</v>
+        <v>0.03322167803200759</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.092120872855581</v>
+        <v>3.821138077775814</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03322167803200759</v>
+        <v>0.9613182348626254</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.821138077775814</v>
+        <v>0.999517315746182</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9613182348626254</v>
+        <v>4</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.999517315746182</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.454618965849487</v>
       </c>
     </row>
@@ -5401,7 +5365,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.475031036156792</v>
+        <v>1.465425035447296</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.2855481076968</v>
@@ -5490,7 +5454,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.469800391256004</v>
+        <v>1.460868274715405</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.275883249374751</v>
@@ -5579,7 +5543,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.461850022104831</v>
+        <v>1.461311841546728</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.244563449559335</v>
@@ -5668,7 +5632,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.518293277442567</v>
+        <v>1.508829701127487</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.059696735136783</v>
@@ -5757,7 +5721,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.540151727038499</v>
+        <v>1.52098577077406</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.463042966403372</v>
@@ -5846,7 +5810,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.526715096298144</v>
+        <v>1.503232823940917</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.634296555858184</v>
@@ -5935,7 +5899,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.537130073799326</v>
+        <v>1.518100442156699</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.430376437684681</v>
@@ -6024,7 +5988,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.52741614257954</v>
+        <v>1.510980039325089</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.395172635145405</v>
@@ -6113,7 +6077,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.522041529440569</v>
+        <v>1.500712102229744</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.439768137168868</v>
@@ -6202,7 +6166,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.520064538243021</v>
+        <v>1.499162431625066</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.457301347172714</v>
@@ -6291,7 +6255,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.497201393266798</v>
+        <v>1.480437011606109</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.551743545488038</v>
@@ -6380,7 +6344,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.495786601508089</v>
+        <v>1.479605687460321</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.702550379183695</v>
@@ -6469,7 +6433,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.385212376214403</v>
+        <v>1.380897954049736</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.62852532186969</v>
@@ -6558,7 +6522,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.202798860020439</v>
+        <v>1.19210086824732</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.358916970380474</v>
@@ -6647,7 +6611,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.188427452858186</v>
+        <v>1.178499813532881</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.362780070977812</v>
@@ -6736,7 +6700,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.217171131785784</v>
+        <v>1.197915429800622</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.399643420155851</v>
@@ -6825,7 +6789,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.203441541372049</v>
+        <v>1.184470437427778</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.406434264479291</v>
@@ -6914,7 +6878,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.203650428171493</v>
+        <v>1.182726743963864</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.412975890762639</v>
@@ -7003,7 +6967,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.20337373158506</v>
+        <v>1.18226575422483</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.412433597709428</v>
@@ -7092,7 +7056,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.204190174663924</v>
+        <v>1.183075260943748</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.411083277241407</v>
@@ -7181,7 +7145,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.207692879800863</v>
+        <v>1.18570584393285</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.413684676368121</v>
@@ -7270,7 +7234,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.207382912880941</v>
+        <v>1.184374802699982</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.41254894524274</v>
@@ -7359,7 +7323,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.207953813564608</v>
+        <v>1.184248396712304</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.412350582829946</v>
@@ -7448,7 +7412,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.207612873956123</v>
+        <v>1.184150184623791</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.413102341548005</v>
@@ -7537,7 +7501,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.206686803779844</v>
+        <v>1.182879346427842</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.416534851197866</v>
@@ -7626,7 +7590,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.210605163881559</v>
+        <v>1.187322450480967</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.410003515162956</v>
@@ -7715,7 +7679,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.212730688841894</v>
+        <v>1.189308520118768</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.416026903788762</v>
@@ -7804,7 +7768,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.233867362368997</v>
+        <v>1.206312237856125</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.369795434924086</v>
@@ -7893,7 +7857,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.39374327201313</v>
+        <v>1.346752259166431</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.952359575272552</v>
@@ -7982,7 +7946,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.430692067211817</v>
+        <v>1.374380556668599</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.058549765086133</v>
@@ -8071,7 +8035,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.470432895025886</v>
+        <v>1.41804016768147</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.828260376353972</v>
@@ -8160,7 +8124,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.524177127761108</v>
+        <v>1.467256357674878</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.833070442807674</v>
@@ -8249,7 +8213,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.600643812949883</v>
+        <v>1.530925622123914</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.25544963140531</v>
@@ -8338,7 +8302,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.608570060746217</v>
+        <v>1.537731487952736</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.011155260882503</v>
@@ -8427,7 +8391,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.60536412431053</v>
+        <v>1.538776017935699</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.789319220158506</v>
@@ -8516,7 +8480,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.612323566320351</v>
+        <v>1.558972792753402</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.913964911649495</v>
@@ -8605,7 +8569,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.62868188241796</v>
+        <v>1.567021580913248</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.714593051344806</v>
@@ -8694,7 +8658,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.627477993361403</v>
+        <v>1.566997576290138</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.847659158362661</v>
@@ -8783,7 +8747,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.630444657773048</v>
+        <v>1.574246017862827</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.984368493561998</v>
@@ -8872,7 +8836,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.648935507352368</v>
+        <v>1.580650342354998</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.112943650055652</v>
@@ -8961,7 +8925,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.644736751871643</v>
+        <v>1.57626156067445</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.260084333266618</v>
@@ -9050,7 +9014,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.587001246488707</v>
+        <v>1.533836020602471</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.318105598318978</v>
@@ -9139,7 +9103,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.598687458983435</v>
+        <v>1.542281342308619</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.168334617587238</v>
@@ -9228,7 +9192,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.592787206707189</v>
+        <v>1.545863832848894</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.239882786879104</v>
@@ -9317,7 +9281,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.594509883907708</v>
+        <v>1.552058850156581</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.114536573374282</v>
@@ -9406,7 +9370,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.601011303436643</v>
+        <v>1.564286634884321</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.209991956931512</v>
@@ -9495,7 +9459,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.602087543164621</v>
+        <v>1.563040027885273</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.296445912728621</v>
@@ -9584,7 +9548,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.591118958971057</v>
+        <v>1.558597958694561</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.296379167325993</v>
@@ -9673,7 +9637,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.555808692544937</v>
+        <v>1.527740025710766</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.227958362684458</v>
@@ -9959,7 +9923,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.261414431773601</v>
+        <v>1.212778654405191</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.969086503768568</v>
@@ -10048,7 +10012,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.258422961481427</v>
+        <v>1.210749501374693</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.039977456754812</v>
@@ -10137,7 +10101,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.263446765478822</v>
+        <v>1.207742218790099</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.977918987539471</v>
@@ -10226,7 +10190,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.247780842755044</v>
+        <v>1.197746131373979</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.087663951827923</v>
@@ -10315,7 +10279,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.251187570150422</v>
+        <v>1.196894432105698</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.028248099025594</v>
@@ -10404,7 +10368,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.243732518930001</v>
+        <v>1.189725995496164</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.952118063559945</v>
@@ -10493,7 +10457,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.234486040883426</v>
+        <v>1.187446012041097</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.078690433633402</v>
@@ -10582,7 +10546,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.232097283253867</v>
+        <v>1.191536549910486</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.949618233653933</v>
@@ -10671,7 +10635,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.224498728789271</v>
+        <v>1.1871980120388</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.938618038457455</v>
@@ -10760,7 +10724,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.216628491546687</v>
+        <v>1.178027085829694</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.947062667532889</v>
@@ -10849,7 +10813,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.215970578634815</v>
+        <v>1.175863866169264</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.034505303334957</v>
@@ -10938,7 +10902,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.227851839897709</v>
+        <v>1.189505375009659</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.016889602487472</v>
@@ -11027,7 +10991,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.224278562164526</v>
+        <v>1.182094771746993</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.017836187041461</v>
@@ -11116,7 +11080,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.214394625165944</v>
+        <v>1.180238173031219</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.061970768172468</v>
@@ -11205,7 +11169,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.220068934846328</v>
+        <v>1.183301396025015</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.017727216411994</v>
@@ -11294,7 +11258,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.258772185625206</v>
+        <v>1.210654269681618</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.032521678716599</v>
@@ -11383,7 +11347,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.252168281184906</v>
+        <v>1.204535727885834</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.260298621703876</v>
@@ -11472,7 +11436,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.25156206601157</v>
+        <v>1.207032981619898</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.154785450988775</v>
@@ -11561,7 +11525,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.256040980728227</v>
+        <v>1.211304832822109</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.132423246862192</v>
@@ -11650,7 +11614,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.267340849587867</v>
+        <v>1.225065805375988</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.072281752890292</v>
@@ -11739,7 +11703,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.288373266152435</v>
+        <v>1.244442280825476</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.218516688279689</v>
@@ -11828,7 +11792,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.284821203162806</v>
+        <v>1.242426873755045</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.223910779870225</v>
@@ -11917,7 +11881,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.274987957495968</v>
+        <v>1.234597384572615</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.111200357317002</v>
@@ -12006,7 +11970,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.273672088855808</v>
+        <v>1.235428253423799</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.223282612962943</v>
@@ -12095,7 +12059,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.279682890332578</v>
+        <v>1.23937705460966</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.107786789098528</v>
@@ -12184,7 +12148,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.28566048778412</v>
+        <v>1.246387326561338</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.232971842154559</v>
@@ -12273,7 +12237,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.29394063847303</v>
+        <v>1.254806250003393</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.200467145934335</v>
@@ -12362,7 +12326,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.301709203348874</v>
+        <v>1.259898488145321</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.976406364653115</v>
@@ -12451,7 +12415,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.301642727221205</v>
+        <v>1.258772080641358</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.178172993586372</v>
@@ -12540,7 +12504,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.323479015666073</v>
+        <v>1.277556931344692</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.943257247910917</v>
@@ -12629,7 +12593,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.314058229838808</v>
+        <v>1.270939765663294</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.065056294608465</v>
@@ -12718,7 +12682,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.337527023371908</v>
+        <v>1.299303997829623</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.896329266955877</v>
@@ -12807,7 +12771,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.356938448662902</v>
+        <v>1.323775276786191</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.931351512969144</v>
@@ -12896,7 +12860,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.372873527586161</v>
+        <v>1.338583758907798</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.130966102830596</v>
@@ -12985,7 +12949,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.363726242236685</v>
+        <v>1.32652406358049</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.307614365002999</v>
@@ -13074,7 +13038,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.374652417110405</v>
+        <v>1.340807696188432</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.988429665887006</v>
@@ -13163,7 +13127,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.390451393582955</v>
+        <v>1.346092458564226</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.239954568090309</v>
@@ -13252,7 +13216,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.406422449892936</v>
+        <v>1.359242974539928</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.198514456709401</v>
@@ -13341,7 +13305,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.415202957788805</v>
+        <v>1.370169232038095</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.120378390669337</v>
@@ -13430,7 +13394,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.43087507549662</v>
+        <v>1.383750712798041</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.173231951528722</v>
@@ -13519,7 +13483,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.429844677553358</v>
+        <v>1.383605464913755</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.189117493267469</v>
@@ -13608,7 +13572,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.424413462300758</v>
+        <v>1.379212961247204</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.048995078182297</v>
@@ -13697,7 +13661,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.436971418385199</v>
+        <v>1.387298663211611</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.195887333021766</v>
@@ -13786,7 +13750,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.418721533886229</v>
+        <v>1.374434802613872</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.169087055946031</v>
@@ -13875,7 +13839,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.413948150645395</v>
+        <v>1.375775165468597</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.204108992557385</v>
@@ -13964,7 +13928,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.404539970778767</v>
+        <v>1.37062677940921</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.222968654040007</v>
@@ -14053,7 +14017,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.426000892766289</v>
+        <v>1.3873314317553</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.003820030738809</v>
@@ -14142,7 +14106,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.402360827901032</v>
+        <v>1.36399764245218</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.101692102808788</v>
@@ -14231,7 +14195,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.362031344242355</v>
+        <v>1.324112482521077</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.821258930747887</v>
@@ -14517,7 +14481,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.670059496730415</v>
+        <v>1.62299233847676</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.846901638871217</v>
@@ -14606,7 +14570,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.665801993245147</v>
+        <v>1.61800762361863</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.713829583354529</v>
@@ -14695,7 +14659,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.669791123290109</v>
+        <v>1.625918003172805</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.668433264048493</v>
@@ -14784,7 +14748,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.66031156383187</v>
+        <v>1.616242555053347</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.060453071706994</v>
@@ -14873,7 +14837,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.66612221692541</v>
+        <v>1.615937190175097</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.658503892192717</v>
@@ -14962,7 +14926,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.65165169396597</v>
+        <v>1.608646466109245</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.865684518976471</v>
@@ -15051,7 +15015,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.663968150736308</v>
+        <v>1.620926747966764</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.651350685359347</v>
@@ -15140,7 +15104,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.664089530872202</v>
+        <v>1.620449052577158</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.650919017295348</v>
@@ -15229,7 +15193,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.64997045007056</v>
+        <v>1.608746838156331</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.564988875303468</v>
@@ -15318,7 +15282,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.647775951939085</v>
+        <v>1.604774061217514</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.670806251011636</v>
@@ -15407,7 +15371,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.623685958630175</v>
+        <v>1.577041648203136</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.784940936877329</v>
@@ -15496,7 +15460,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.640008136048582</v>
+        <v>1.600359600132578</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.952289672918524</v>
@@ -15585,7 +15549,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.633107389779234</v>
+        <v>1.589887751564336</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.696560194295015</v>
@@ -15674,7 +15638,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.509872485036866</v>
+        <v>1.49121784033605</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.828371623606829</v>
@@ -15763,7 +15727,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.500966519589972</v>
+        <v>1.486152869629384</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.833140086857506</v>
@@ -15852,7 +15816,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.479316844950953</v>
+        <v>1.428857135032202</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.946756680722076</v>
@@ -15941,7 +15905,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.407616066034321</v>
+        <v>1.370433553904227</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.979775446664982</v>
@@ -16030,7 +15994,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.392873879185204</v>
+        <v>1.353765998661656</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.999029891426139</v>
@@ -16119,7 +16083,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.378723620069161</v>
+        <v>1.340339020326292</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.01266010606038</v>
@@ -16208,7 +16172,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.376722356512734</v>
+        <v>1.334590640995289</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.026494893371474</v>
@@ -16297,7 +16261,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.381097527405793</v>
+        <v>1.338440388376169</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.006610641716911</v>
@@ -16386,7 +16350,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.376316253108415</v>
+        <v>1.334623079515482</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.009972531059018</v>
@@ -16475,7 +16439,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.377666157432967</v>
+        <v>1.335699489034759</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.052027645807655</v>
@@ -16564,7 +16528,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.378124135665274</v>
+        <v>1.33888289584267</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.027173876975691</v>
@@ -16653,7 +16617,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.375488430191029</v>
+        <v>1.336259709248686</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.997766189640668</v>
@@ -16742,7 +16706,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.380359505016947</v>
+        <v>1.343167095908911</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.004845808107446</v>
@@ -16831,7 +16795,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.377428420926139</v>
+        <v>1.337226612743854</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.021598069388511</v>
@@ -16920,7 +16884,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.375169141305552</v>
+        <v>1.334651543713369</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.927406057051291</v>
@@ -17009,7 +16973,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.413759690444763</v>
+        <v>1.364154944640445</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.963945088474106</v>
@@ -17098,7 +17062,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.418947030470147</v>
+        <v>1.365921880332576</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.962550989128306</v>
@@ -17187,7 +17151,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.460164845754079</v>
+        <v>1.417967489419057</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.758609445743886</v>
@@ -17276,7 +17240,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.516255158223346</v>
+        <v>1.465014965847078</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.813358795204728</v>
@@ -17365,7 +17329,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.598468587354989</v>
+        <v>1.537147066629385</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.081625497376191</v>
@@ -17454,7 +17418,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.626263244754245</v>
+        <v>1.561605184146913</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.734549353704828</v>
@@ -17543,7 +17507,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.632599559035558</v>
+        <v>1.575543657502346</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.099151098741517</v>
@@ -17632,7 +17596,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.63446739115699</v>
+        <v>1.578653792781076</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.701612581195762</v>
@@ -17721,7 +17685,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.648457485418667</v>
+        <v>1.587194838256118</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.976611215328341</v>
@@ -17810,7 +17774,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.650656937177901</v>
+        <v>1.590309213056541</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.032612471171156</v>
@@ -17899,7 +17863,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.662067139868164</v>
+        <v>1.59948060752327</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.55189791630752</v>
@@ -17988,7 +17952,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.68480800659778</v>
+        <v>1.614605264943218</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.827048828226641</v>
@@ -18077,7 +18041,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.679598350211015</v>
+        <v>1.611730292492234</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.18704757594807</v>
@@ -18166,7 +18130,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.617882409060273</v>
+        <v>1.569724490694733</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.366782177707139</v>
@@ -18255,7 +18219,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.638169056001997</v>
+        <v>1.589045466057598</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.228765078823547</v>
@@ -18344,7 +18308,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.63122468417512</v>
+        <v>1.586469652859598</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.24953277114105</v>
@@ -18433,7 +18397,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.638631876026212</v>
+        <v>1.5941446284287</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.300950937403987</v>
@@ -18522,7 +18486,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.641880151191727</v>
+        <v>1.599441825334901</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.217478764833314</v>
@@ -18611,7 +18575,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.654098403711321</v>
+        <v>1.611915018582337</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.196283876061088</v>
@@ -18700,7 +18664,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.629041047733266</v>
+        <v>1.598933021346047</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.199289708789464</v>
@@ -18789,7 +18753,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.616965113321411</v>
+        <v>1.585421983873685</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.213736727940729</v>
@@ -19075,7 +19039,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.387070638789466</v>
+        <v>1.379917910444811</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.142743695323631</v>
@@ -19164,7 +19128,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.376607819505005</v>
+        <v>1.36899837271822</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.191019268571423</v>
@@ -19253,7 +19217,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.387014708883261</v>
+        <v>1.370332885183654</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.117054458111062</v>
@@ -19342,7 +19306,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.385119732293493</v>
+        <v>1.369239239228661</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.187714640789675</v>
@@ -19431,7 +19395,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.388717483083546</v>
+        <v>1.365218655112855</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.222010070400946</v>
@@ -19520,7 +19484,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.386260189124362</v>
+        <v>1.363029974465888</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.127412055167067</v>
@@ -19609,7 +19573,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.386890520852044</v>
+        <v>1.369117498860079</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.149300242512378</v>
@@ -19698,7 +19662,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.392017457348659</v>
+        <v>1.377988935460429</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.157638209408746</v>
@@ -19787,7 +19751,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.380380137716676</v>
+        <v>1.366412499512131</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.133052149093255</v>
@@ -19876,7 +19840,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.368126218138203</v>
+        <v>1.353092258809962</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.156617664965621</v>
@@ -19965,7 +19929,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.374120118109357</v>
+        <v>1.35537622329135</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.259730318785392</v>
@@ -20054,7 +20018,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.412985751834386</v>
+        <v>1.391875014616542</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.252832725905243</v>
@@ -20143,7 +20107,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.40473239435158</v>
+        <v>1.383220336656063</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.220745540822723</v>
@@ -20232,7 +20196,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.316895622554837</v>
+        <v>1.312353098032326</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.724922583567721</v>
@@ -20321,7 +20285,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.3213278446531</v>
+        <v>1.315590278379787</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.755586882353945</v>
@@ -20410,7 +20374,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.33626343123531</v>
+        <v>1.325108228189447</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.793968034063181</v>
@@ -20499,7 +20463,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.33920897557613</v>
+        <v>1.329368037514003</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.758918838508782</v>
@@ -20588,7 +20552,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.348549204568438</v>
+        <v>1.340012693944214</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.790167005052127</v>
@@ -20677,7 +20641,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.357637556383878</v>
+        <v>1.35005273521138</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.766691708407715</v>
@@ -20766,7 +20730,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.373236087764164</v>
+        <v>1.364395522152474</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.791177117604606</v>
@@ -20855,7 +20819,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.392550533215088</v>
+        <v>1.377070006996931</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.74008004015608</v>
@@ -20944,7 +20908,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.392712434007962</v>
+        <v>1.377584942479601</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.744479287106639</v>
@@ -21033,7 +20997,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.38899223199879</v>
+        <v>1.370122256581537</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.772433229741346</v>
@@ -21122,7 +21086,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.390878644321544</v>
+        <v>1.37277534821794</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.752140848607654</v>
@@ -21211,7 +21175,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.395577504386881</v>
+        <v>1.374798960967609</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.767044979672557</v>
@@ -21300,7 +21264,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.405496170050592</v>
+        <v>1.385083810844429</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.761528637227026</v>
@@ -21389,7 +21353,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.403742841857438</v>
+        <v>1.385301460324014</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.746128025733902</v>
@@ -21478,7 +21442,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.415339475275357</v>
+        <v>1.392171059537679</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.640781853671232</v>
@@ -21567,7 +21531,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.534628394357916</v>
+        <v>1.487931812893021</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.686297622777789</v>
@@ -21656,7 +21620,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.574596086724113</v>
+        <v>1.518153724309893</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.15561378794711</v>
@@ -21745,7 +21709,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.597030262820009</v>
+        <v>1.540324110490753</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.244776846861397</v>
@@ -21834,7 +21798,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.610022593980423</v>
+        <v>1.549767999671301</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.692480206296965</v>
@@ -21923,7 +21887,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.604089279858596</v>
+        <v>1.546745135482507</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.896797240463969</v>
@@ -22012,7 +21976,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.612984879809126</v>
+        <v>1.550255171445948</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.826749093151545</v>
@@ -22101,7 +22065,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.596101763476027</v>
+        <v>1.542226799396369</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.870760903370764</v>
@@ -22190,7 +22154,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.600797019421786</v>
+        <v>1.557595163571754</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.483348383371262</v>
@@ -22279,7 +22243,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.604514666838458</v>
+        <v>1.555365865347692</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.554877146551588</v>
@@ -22368,7 +22332,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.610419728353195</v>
+        <v>1.563099963010823</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.787418627778752</v>
@@ -22457,7 +22421,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.605090590231165</v>
+        <v>1.565727827121116</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.636987378721269</v>
@@ -22546,7 +22510,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.628079461404163</v>
+        <v>1.586370095056698</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.69483008419481</v>
@@ -22635,7 +22599,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.619899773247605</v>
+        <v>1.580981796628061</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.663226425829252</v>
@@ -22724,7 +22688,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631262749605106</v>
+        <v>1.589559187229281</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.630948305928702</v>
@@ -22813,7 +22777,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.647436240384978</v>
+        <v>1.596365578186096</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.731230238774245</v>
@@ -22902,7 +22866,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.625885728868548</v>
+        <v>1.584087542612022</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.639322030272803</v>
@@ -22991,7 +22955,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.630723564668342</v>
+        <v>1.589909685464637</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.885116388723795</v>
@@ -23080,7 +23044,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.633199582237131</v>
+        <v>1.597419213656782</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.805542831787222</v>
@@ -23169,7 +23133,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.655763862148094</v>
+        <v>1.60976070365067</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.47522263046644</v>
@@ -23258,7 +23222,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.629780999570359</v>
+        <v>1.593397218838583</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.598840241264752</v>
@@ -23347,7 +23311,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.580672204529942</v>
+        <v>1.552775616009682</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.279104222229733</v>
@@ -23633,7 +23597,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.378147531981703</v>
+        <v>1.359795100121168</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.023282474116911</v>
@@ -23722,7 +23686,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.371965514315115</v>
+        <v>1.355225805197146</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.002932690597981</v>
@@ -23811,7 +23775,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.387024053466114</v>
+        <v>1.364679857081914</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.934574960025059</v>
@@ -23900,7 +23864,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.39844454990207</v>
+        <v>1.374229352687735</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.034826819118946</v>
@@ -23989,7 +23953,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.388737971280686</v>
+        <v>1.357707731668526</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.992182276304916</v>
@@ -24078,7 +24042,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.384983856587441</v>
+        <v>1.354105834350072</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.022596500850462</v>
@@ -24167,7 +24131,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.38030119309223</v>
+        <v>1.355071787824789</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.986397731920853</v>
@@ -24256,7 +24220,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.376802204582559</v>
+        <v>1.350734381584072</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.992485972608152</v>
@@ -24345,7 +24309,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.371718103887009</v>
+        <v>1.34563377372034</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.971732907783369</v>
@@ -24434,7 +24398,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.359762405149762</v>
+        <v>1.332027805627088</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.999267753004779</v>
@@ -24523,7 +24487,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.355273967134412</v>
+        <v>1.331395594556817</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.063241808485882</v>
@@ -24612,7 +24576,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.395161869671318</v>
+        <v>1.364516534127034</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.282907110096688</v>
@@ -24701,7 +24665,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.386539855633392</v>
+        <v>1.351052367531752</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.196665328920111</v>
@@ -24790,7 +24754,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.305598738197645</v>
+        <v>1.289756975518601</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.732209831711758</v>
@@ -24879,7 +24843,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.305920687446401</v>
+        <v>1.289189289347394</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.75413226095164</v>
@@ -24968,7 +24932,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.315787909956266</v>
+        <v>1.295699642524053</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.832221737768256</v>
@@ -25057,7 +25021,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.308316039495851</v>
+        <v>1.288597706817276</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.804921719099622</v>
@@ -25146,7 +25110,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.309841805356284</v>
+        <v>1.292226760384149</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.835450359497057</v>
@@ -25235,7 +25199,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.312722093799008</v>
+        <v>1.297231635417456</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.811182597230744</v>
@@ -25324,7 +25288,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.328374517558398</v>
+        <v>1.30916824525608</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.83812388461253</v>
@@ -25413,7 +25377,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.344645165914683</v>
+        <v>1.321962235996418</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.791307048095826</v>
@@ -25502,7 +25466,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.348750072995718</v>
+        <v>1.323267798477961</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.797447753565379</v>
@@ -25591,7 +25555,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.348913002057462</v>
+        <v>1.323092117002596</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.818354194835674</v>
@@ -25680,7 +25644,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.342673106455361</v>
+        <v>1.317949098421231</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.802056016286583</v>
@@ -25769,7 +25733,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.351907158390539</v>
+        <v>1.32691912238404</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.847368550062856</v>
@@ -25858,7 +25822,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.366234693372521</v>
+        <v>1.339572680636814</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.804169713976459</v>
@@ -25947,7 +25911,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.365151376723017</v>
+        <v>1.341747447576937</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.793460970995342</v>
@@ -26036,7 +26000,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.374896377979052</v>
+        <v>1.350682085907834</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.690397239924947</v>
@@ -26125,7 +26089,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.454595955265593</v>
+        <v>1.412201853187182</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.325811564104618</v>
@@ -26214,7 +26178,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.48369381516235</v>
+        <v>1.432080061562437</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.110433779618034</v>
@@ -26303,7 +26267,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.519782083628914</v>
+        <v>1.456475138893915</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.4956389902621</v>
@@ -26392,7 +26356,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.549157733610391</v>
+        <v>1.4832635682021</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.27960208462547</v>
@@ -26481,7 +26445,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.570863938537048</v>
+        <v>1.500648237105606</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.403565042525666</v>
@@ -26570,7 +26534,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.583181432810215</v>
+        <v>1.506819296570394</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.935913681992737</v>
@@ -26659,7 +26623,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.563491407437959</v>
+        <v>1.497061637860587</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.911008792802795</v>
@@ -26748,7 +26712,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.563558536291696</v>
+        <v>1.506868718747161</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.616174164423554</v>
@@ -26837,7 +26801,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.562113998855675</v>
+        <v>1.498520178568594</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.773593301731127</v>
@@ -26926,7 +26890,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.550935974361301</v>
+        <v>1.492614670144954</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.840365261500854</v>
@@ -27015,7 +26979,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.553266488661472</v>
+        <v>1.503205093641014</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.687537737287222</v>
@@ -27104,7 +27068,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.561442394964963</v>
+        <v>1.50349609134303</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.732976379474707</v>
@@ -27193,7 +27157,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.552498226377272</v>
+        <v>1.49690257534593</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.73240963189824</v>
@@ -27282,7 +27246,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.540028906230888</v>
+        <v>1.485839211887796</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.603838633059235</v>
@@ -27371,7 +27335,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.554497465295004</v>
+        <v>1.497599323081015</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.754844487915769</v>
@@ -27460,7 +27424,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.548383949224897</v>
+        <v>1.499952145454171</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.573469088667774</v>
@@ -27549,7 +27513,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.550348393269126</v>
+        <v>1.505925203259572</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.620775311631011</v>
@@ -27638,7 +27602,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.548037793158393</v>
+        <v>1.507193647577849</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.648803924809893</v>
@@ -27727,7 +27691,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.5661391663869</v>
+        <v>1.524851367491194</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.475192045302217</v>
@@ -27816,7 +27780,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.544372998841997</v>
+        <v>1.507302866626805</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.61030759232321</v>
@@ -27905,7 +27869,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.504830942039742</v>
+        <v>1.475015807261089</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.219689725628581</v>
@@ -28191,7 +28155,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.288667156055112</v>
+        <v>1.305239602273334</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.240482980146622</v>
@@ -28280,7 +28244,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.284996982515111</v>
+        <v>1.299806820630276</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.302752447056248</v>
@@ -28369,7 +28333,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.311619336041055</v>
+        <v>1.318845635093082</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.18422167741536</v>
@@ -28458,7 +28422,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.300218133475521</v>
+        <v>1.309434562961065</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.341887832176787</v>
@@ -28547,7 +28511,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.301582584387395</v>
+        <v>1.304307513979727</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.168686656745102</v>
@@ -28636,7 +28600,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.304007541739928</v>
+        <v>1.306220734340713</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.159600301936011</v>
@@ -28725,7 +28689,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.297764354504863</v>
+        <v>1.302952983336713</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.200431766647046</v>
@@ -28814,7 +28778,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.29965308712889</v>
+        <v>1.307276131368831</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.170164348093011</v>
@@ -28903,7 +28867,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.279188246062702</v>
+        <v>1.286014199356209</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.057250399926016</v>
@@ -28992,7 +28956,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.275196167363855</v>
+        <v>1.283389165017803</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.168578184753255</v>
@@ -29081,7 +29045,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.276533331896352</v>
+        <v>1.284447011056018</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.239276213942196</v>
@@ -29170,7 +29134,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.293391455500944</v>
+        <v>1.30307504991565</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.077249535241419</v>
@@ -29259,7 +29223,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.283138955172765</v>
+        <v>1.287828965935252</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.137844418997151</v>
@@ -29348,7 +29312,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.240818745658145</v>
+        <v>1.248948030737696</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.862183900328131</v>
@@ -29437,7 +29401,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.257067114278914</v>
+        <v>1.258567672354732</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.879585637895382</v>
@@ -29526,7 +29490,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.289110738733016</v>
+        <v>1.275889004248458</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.008223190688765</v>
@@ -29615,7 +29579,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.273809406957632</v>
+        <v>1.26244070902271</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.954027250965149</v>
@@ -29704,7 +29668,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.283776104928514</v>
+        <v>1.271863088811896</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.006098964157047</v>
@@ -29793,7 +29757,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.29014851671565</v>
+        <v>1.279466513146578</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.947206762960035</v>
@@ -29882,7 +29846,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.307795427174696</v>
+        <v>1.297774552124782</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.00116123854789</v>
@@ -29971,7 +29935,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.328983699365157</v>
+        <v>1.317311549419881</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.905101393109916</v>
@@ -30060,7 +30024,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.331626918541416</v>
+        <v>1.321497803607393</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.925565892908421</v>
@@ -30149,7 +30113,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.330334967861099</v>
+        <v>1.317168089135073</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.010531936746078</v>
@@ -30238,7 +30202,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.336205316807528</v>
+        <v>1.322329395387529</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.929319263904582</v>
@@ -30327,7 +30291,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.332637078766838</v>
+        <v>1.319951405561537</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.956962145903647</v>
@@ -30416,7 +30380,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.342975827170257</v>
+        <v>1.329310751254698</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.953208053378535</v>
@@ -30505,7 +30469,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.349680289079478</v>
+        <v>1.336183076961772</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.968757070957093</v>
@@ -30594,7 +30558,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.355267019934999</v>
+        <v>1.340604880120422</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.780314758615515</v>
@@ -30683,7 +30647,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.40258882737008</v>
+        <v>1.383358722342623</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.204447423110915</v>
@@ -30772,7 +30736,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.436975327033456</v>
+        <v>1.417085714850754</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.955089424068093</v>
@@ -30861,7 +30825,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.464461098294544</v>
+        <v>1.459650020312319</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.882183955976277</v>
@@ -30950,7 +30914,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.488634481611465</v>
+        <v>1.477824358619153</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.249602185790957</v>
@@ -31039,7 +31003,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.490571055320676</v>
+        <v>1.491555282966342</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.325204076357238</v>
@@ -31128,7 +31092,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.498515529280904</v>
+        <v>1.500005104635985</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.343671396878766</v>
@@ -31217,7 +31181,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.464395048409754</v>
+        <v>1.467483130215516</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.351159172512009</v>
@@ -31306,7 +31270,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.468905430242355</v>
+        <v>1.475694684531663</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.173270961413235</v>
@@ -31395,7 +31359,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.478824841315336</v>
+        <v>1.48244234760623</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.266646732278123</v>
@@ -31484,7 +31448,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.48951917741521</v>
+        <v>1.495280818878472</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.25938451466539</v>
@@ -31573,7 +31537,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.479617839484436</v>
+        <v>1.487782061033113</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.351054033464923</v>
@@ -31662,7 +31626,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.501732549847437</v>
+        <v>1.505778993016355</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.33699977069009</v>
@@ -31751,7 +31715,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.507827049726007</v>
+        <v>1.51105435759885</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.261679136616575</v>
@@ -31840,7 +31804,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.523026522510226</v>
+        <v>1.523385990098522</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.23195990092753</v>
@@ -31929,7 +31893,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.546224122180302</v>
+        <v>1.546049505948494</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.223289883204403</v>
@@ -32018,7 +31982,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.51662503259379</v>
+        <v>1.520835596006441</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.282717668355918</v>
@@ -32107,7 +32071,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.518317512309842</v>
+        <v>1.521895392832677</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.299517850564307</v>
@@ -32196,7 +32160,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.517407905346384</v>
+        <v>1.525719667684328</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.396051008585717</v>
@@ -32285,7 +32249,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.54759005118284</v>
+        <v>1.556111212589038</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.169734896917681</v>
@@ -32374,7 +32338,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.51940225902329</v>
+        <v>1.531406928508927</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.236562584896237</v>
@@ -32463,7 +32427,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.503512782026662</v>
+        <v>1.515486655716335</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.265965248900001</v>
